--- a/xlsx_ouputs/peak_cooling_with_citysim.xlsx
+++ b/xlsx_ouputs/peak_cooling_with_citysim.xlsx
@@ -16,28 +16,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
-    <t>ESP</t>
-  </si>
-  <si>
-    <t>BLAST</t>
-  </si>
-  <si>
-    <t>DOE2</t>
-  </si>
-  <si>
-    <t>SRES/SUN</t>
-  </si>
-  <si>
-    <t>SERIRES</t>
-  </si>
-  <si>
-    <t>S3PAS</t>
-  </si>
-  <si>
-    <t>TRNSYS</t>
-  </si>
-  <si>
-    <t>TASE</t>
+    <t>ESP(APC)</t>
+  </si>
+  <si>
+    <t>BLAST(APC)</t>
+  </si>
+  <si>
+    <t>DOE2(APC)</t>
+  </si>
+  <si>
+    <t>SRES/SUN(APC)</t>
+  </si>
+  <si>
+    <t>SERIRES(APC)</t>
+  </si>
+  <si>
+    <t>S3PAS(APC)</t>
+  </si>
+  <si>
+    <t>TRNSYS(APC)</t>
+  </si>
+  <si>
+    <t>TASE(APC)</t>
   </si>
   <si>
     <t>min</t>
@@ -670,7 +670,7 @@
         <v>5.601</v>
       </c>
       <c r="M3">
-        <v>-1</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1267,7 +1267,7 @@
         <v>1.891</v>
       </c>
       <c r="M18">
-        <v>-16</v>
+        <v>-16.3</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1305,7 +1305,7 @@
         <v>6.332</v>
       </c>
       <c r="M19">
-        <v>-0</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1343,7 +1343,7 @@
         <v>4.321</v>
       </c>
       <c r="M20">
-        <v>-3</v>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1381,7 +1381,7 @@
         <v>6.125</v>
       </c>
       <c r="M21">
-        <v>-1</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1495,7 +1495,7 @@
         <v>5.517</v>
       </c>
       <c r="M24">
-        <v>-3</v>
+        <v>-3.2</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1738,7 +1738,7 @@
         <v>4.312</v>
       </c>
       <c r="M30">
-        <v>-3</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="31" spans="1:13">
